--- a/Organizacional/05. Calidad/PTL-Auditoria.xlsx
+++ b/Organizacional/05. Calidad/PTL-Auditoria.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7665" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7665"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
   <externalReferences>
     <externalReference r:id="rId6"/>
   </externalReferences>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="148">
   <si>
     <t>Checklist de Auditorías</t>
   </si>
@@ -146,9 +146,6 @@
     <t>¿Se tiene un cronograma de actividades?</t>
   </si>
   <si>
-    <t>¿Se genero una estimación el proyecto?</t>
-  </si>
-  <si>
     <t>¿Se encuentran definidos los equipos de trabajo por parte del cliente?</t>
   </si>
   <si>
@@ -179,24 +176,6 @@
     <t>¿Se tiene el nombre de contacto del cliente?</t>
   </si>
   <si>
-    <t>¿Se definieron las etapas del proyecto?</t>
-  </si>
-  <si>
-    <t>¿Se revisaron los hitos?</t>
-  </si>
-  <si>
-    <t>¿Se revisaron los costos planeados y reales del proyecto?</t>
-  </si>
-  <si>
-    <t>¿Se reporte el esfuerzo planeado y real de cada etapa?</t>
-  </si>
-  <si>
-    <t>¿Se revisaron los resultados de las auditorias?</t>
-  </si>
-  <si>
-    <t>¿Se analizaron los riesgos?</t>
-  </si>
-  <si>
     <t>Elementos de Configuración</t>
   </si>
   <si>
@@ -290,9 +269,6 @@
     <t>Entrega</t>
   </si>
   <si>
-    <t>Medición y Monitoreo</t>
-  </si>
-  <si>
     <t>Propuesta</t>
   </si>
   <si>
@@ -302,9 +278,6 @@
     <t>Carta de Aceptación</t>
   </si>
   <si>
-    <t>Reporte de Monitoreo</t>
-  </si>
-  <si>
     <t>¿Se generó la estimación?</t>
   </si>
   <si>
@@ -359,18 +332,6 @@
     <t>¿Se instaló el producto?</t>
   </si>
   <si>
-    <t>¿Se establecieron los objetivos?</t>
-  </si>
-  <si>
-    <t>¿Se establecieron las metricas?</t>
-  </si>
-  <si>
-    <t>¿Se recolectaron las metricas?</t>
-  </si>
-  <si>
-    <t>¿Se generó el reporte de monitoreo?</t>
-  </si>
-  <si>
     <t>¿Se encuentra especificado el nombre del proyecto?</t>
   </si>
   <si>
@@ -395,9 +356,6 @@
     <t>¿Se tiene una descripción para todos los requerimientos no funcionales?</t>
   </si>
   <si>
-    <t>¿Se estimo un esfuerzo para todo el WBS?</t>
-  </si>
-  <si>
     <t>¿Se tiene una estimación total de esfuerzo?</t>
   </si>
   <si>
@@ -410,9 +368,6 @@
     <t>¿Se tiene definido un costo total del proyecto?</t>
   </si>
   <si>
-    <t>¡Se tiene definido un costo de venta del proyecto?</t>
-  </si>
-  <si>
     <t>¿Se tiene documentado la descripción del producto?</t>
   </si>
   <si>
@@ -437,18 +392,12 @@
     <t>¿Se tiene documentado lo que se encuentra fuera del alcance?</t>
   </si>
   <si>
-    <t>¿Se especifican todos los datos les proyecto?</t>
-  </si>
-  <si>
     <t>¿Se tiene definido una estrategia?</t>
   </si>
   <si>
     <t>¿Se encuentra definido el equipo de Bisoltec?</t>
   </si>
   <si>
-    <t>¿Se tiene definido los tipos de prueba?</t>
-  </si>
-  <si>
     <t>¿Se identificaron los Requerimientos?</t>
   </si>
   <si>
@@ -461,15 +410,9 @@
     <t>¿Se tiene un estatus para las pruebas?</t>
   </si>
   <si>
-    <t>¿Se reporto el avance del proyecto?</t>
-  </si>
-  <si>
     <t>¿Se tiene la lista de entregables?</t>
   </si>
   <si>
-    <t>¿Se tiene firmada la carta de aceptación?</t>
-  </si>
-  <si>
     <t>¿Se tienen los datos del cliente?</t>
   </si>
   <si>
@@ -494,9 +437,6 @@
     <t>¿Se cerró el proyecto?</t>
   </si>
   <si>
-    <t>¿Se presentó el reporte de monitoreo?</t>
-  </si>
-  <si>
     <t>¿Se realizó el kick off?</t>
   </si>
   <si>
@@ -552,6 +492,18 @@
   </si>
   <si>
     <t>¿El contenido de la línea base se ha generado de acuerdo a lo planeado?</t>
+  </si>
+  <si>
+    <t>¿Se especifican todos los datos del proyecto?</t>
+  </si>
+  <si>
+    <t>¿Se generó una estimación del proyecto?</t>
+  </si>
+  <si>
+    <t>¿Se tiene definido un costo de venta del proyecto?</t>
+  </si>
+  <si>
+    <t>¿Se estimó un esfuerzo para todo el WBS?</t>
   </si>
 </sst>
 </file>
@@ -972,7 +924,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1026,9 +978,6 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1230,6 +1179,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1237,14 +1192,7 @@
     <cellStyle name="Normal 3" xfId="1"/>
     <cellStyle name="Porcentaje 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -1302,6 +1250,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1329,9 +1278,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Resumen!$B$14:$B$18</c:f>
+              <c:f>Resumen!$B$14:$B$17</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Requerimientos</c:v>
                 </c:pt>
@@ -1344,18 +1293,15 @@
                 <c:pt idx="3">
                   <c:v>Entrega</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Medición y Monitoreo</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Resumen!$D$14:$D$18</c:f>
+              <c:f>Resumen!$D$14:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1366,9 +1312,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1382,11 +1325,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="120206464"/>
-        <c:axId val="120208000"/>
+        <c:axId val="126112128"/>
+        <c:axId val="126113664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="120206464"/>
+        <c:axId val="126112128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1427,14 +1370,14 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120208000"/>
+        <c:crossAx val="126113664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120208000"/>
+        <c:axId val="126113664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1484,7 +1427,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120206464"/>
+        <c:crossAx val="126112128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1526,7 +1469,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1567,6 +1510,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1594,9 +1538,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Resumen!$B$22:$B$28</c:f>
+              <c:f>Resumen!$B$21:$B$26</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Análisis de Requerimientos</c:v>
                 </c:pt>
@@ -1615,18 +1559,15 @@
                 <c:pt idx="5">
                   <c:v>Carta de Aceptación</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>Reporte de Monitoreo</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Resumen!$D$22:$D$28</c:f>
+              <c:f>Resumen!$D$21:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1645,9 +1586,6 @@
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1659,11 +1597,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="120240768"/>
-        <c:axId val="120533376"/>
+        <c:axId val="126150528"/>
+        <c:axId val="126152064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="120240768"/>
+        <c:axId val="126150528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1704,14 +1642,14 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120533376"/>
+        <c:crossAx val="126152064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120533376"/>
+        <c:axId val="126152064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1761,7 +1699,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120240768"/>
+        <c:crossAx val="126150528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1803,7 +1741,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1839,6 +1777,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1866,7 +1805,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Resumen!$B$32:$B$34</c:f>
+              <c:f>Resumen!$B$30:$B$32</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1883,7 +1822,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Resumen!$D$32:$D$34</c:f>
+              <c:f>Resumen!$D$30:$D$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1907,11 +1846,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="120566144"/>
-        <c:axId val="120567680"/>
+        <c:axId val="121863168"/>
+        <c:axId val="121877248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="120566144"/>
+        <c:axId val="121863168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1952,14 +1891,14 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120567680"/>
+        <c:crossAx val="121877248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120567680"/>
+        <c:axId val="121877248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2009,7 +1948,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120566144"/>
+        <c:crossAx val="121863168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2051,7 +1990,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2087,6 +2026,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2114,7 +2054,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Resumen!$B$38:$B$40</c:f>
+              <c:f>Resumen!$B$36:$B$38</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2131,7 +2071,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Resumen!$D$38:$D$40</c:f>
+              <c:f>Resumen!$D$36:$D$38</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2155,11 +2095,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="120096640"/>
-        <c:axId val="120098176"/>
+        <c:axId val="119447936"/>
+        <c:axId val="119449472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="120096640"/>
+        <c:axId val="119447936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2200,14 +2140,14 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120098176"/>
+        <c:crossAx val="119449472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120098176"/>
+        <c:axId val="119449472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2257,7 +2197,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120096640"/>
+        <c:crossAx val="119447936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2299,7 +2239,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2317,7 +2257,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2341,13 +2281,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2371,13 +2311,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1009650</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2401,13 +2341,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1162050</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2956,11 +2896,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
@@ -2978,76 +2916,76 @@
     <row r="1" spans="1:6" ht="67.5" customHeight="1"/>
     <row r="2" spans="1:6" ht="14.25" customHeight="1"/>
     <row r="3" spans="1:6" ht="21" customHeight="1">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
     </row>
     <row r="5" spans="1:6" ht="15.75">
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="B6" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="78"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="77"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="B7" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="79" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="81"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="80"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="79" t="s">
+      <c r="C8" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="81"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="80"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="81"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="80"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="11" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="12" spans="1:6" ht="16.5" customHeight="1">
-      <c r="B12" s="71" t="s">
-        <v>137</v>
-      </c>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
+      <c r="B12" s="70" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
     </row>
     <row r="13" spans="1:6" ht="16.5" customHeight="1">
       <c r="B13" s="7" t="s">
@@ -3112,282 +3050,254 @@
         <v>0</v>
       </c>
       <c r="D17" s="10" t="e">
-        <f>COUNTIF((Procesos!D33:D36),"x")/(COUNTIF((Procesos!D33:D36),"x")+COUNTIF((Procesos!D33:D36),"x"))</f>
+        <f>COUNTIF((Procesos!D33:D36),"x")/(COUNTIF((Procesos!D33:D36),"x")+COUNTIF((Procesos!E33:E36),"x"))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B18" s="8" t="str">
-        <f>Procesos!B38</f>
-        <v>Medición y Monitoreo</v>
-      </c>
-      <c r="C18" s="9">
-        <f>COUNTA(Procesos!D39:D43)</f>
+    <row r="18" spans="2:8" ht="16.5" customHeight="1"/>
+    <row r="19" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B19" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+    </row>
+    <row r="20" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B20" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="16.5" customHeight="1">
+      <c r="B21" s="8" t="str">
+        <f>Productos!B5</f>
+        <v>Análisis de Requerimientos</v>
+      </c>
+      <c r="C21" s="9">
+        <f>COUNTA(Productos!D6:D16)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="10" t="e">
-        <f>COUNTIF((Procesos!D39:D43),"x")/(COUNTIF((Procesos!D39:D43),"x")+COUNTIF((Procesos!D39:D43),"x"))</f>
+      <c r="D21" s="10" t="e">
+        <f>COUNTIF((Productos!D6:D16),"x")/(COUNTIF((Productos!D6:D16),"x")+COUNTIF((Productos!E6:E16),"x"))</f>
         <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="16.5" customHeight="1"/>
-    <row r="20" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B20" s="71" t="s">
-        <v>138</v>
-      </c>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-    </row>
-    <row r="21" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B21" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="16.5" customHeight="1">
       <c r="B22" s="8" t="str">
-        <f>Productos!B5</f>
-        <v>Análisis de Requerimientos</v>
+        <f>Productos!B18</f>
+        <v>Estimación</v>
       </c>
       <c r="C22" s="9">
-        <f>COUNTA(Productos!D6:D16)</f>
+        <f>COUNTA(Productos!D19:D31)</f>
         <v>0</v>
       </c>
       <c r="D22" s="10" t="e">
-        <f>COUNTIF((Productos!D6:D16),"x")/(COUNTIF((Productos!D6:D16),"x")+COUNTIF((Productos!E6:E16),"x"))</f>
+        <f>COUNTIF((Productos!D19:D31),"x")/(COUNTIF((Productos!D19:D31),"x")+COUNTIF((Productos!E19:E31),"x"))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="16.5" customHeight="1">
       <c r="B23" s="8" t="str">
-        <f>Productos!B18</f>
-        <v>Estimación</v>
+        <f>Productos!B33</f>
+        <v>Propuesta</v>
       </c>
       <c r="C23" s="9">
-        <f>COUNTA(Productos!D19:D31)</f>
+        <f>COUNTA(Productos!D34:D44)</f>
         <v>0</v>
       </c>
       <c r="D23" s="10" t="e">
-        <f>COUNTIF((Productos!D19:D31),"x")/(COUNTIF((Productos!D19:D31),"x")+COUNTIF((Productos!E19:E31),"x"))</f>
+        <f>COUNTIF((Productos!D34:D44),"x")/(COUNTIF((Productos!D34:D44),"x")+COUNTIF((Productos!E34:E44),"x"))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="16.5" customHeight="1">
       <c r="B24" s="8" t="str">
-        <f>Productos!B33</f>
-        <v>Propuesta</v>
+        <f>Productos!B46</f>
+        <v>Plan de proyecto</v>
       </c>
       <c r="C24" s="9">
-        <f>COUNTA(Productos!D34:D44)</f>
+        <f>COUNTA(Productos!D47:D62)</f>
         <v>0</v>
       </c>
       <c r="D24" s="10" t="e">
-        <f>COUNTIF((Productos!D34:D44),"x")/(COUNTIF((Productos!D34:D44),"x")+COUNTIF((Productos!E34:E44),"x"))</f>
+        <f>COUNTIF((Productos!D47:D62),"x")/(COUNTIF((Productos!D47:D62),"x")+COUNTIF((Productos!E47:E62),"x"))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="16.5" customHeight="1">
       <c r="B25" s="8" t="str">
-        <f>Productos!B46</f>
-        <v>Plan de proyecto</v>
+        <f>Productos!B64</f>
+        <v>Plan de Pruebas</v>
       </c>
       <c r="C25" s="9">
-        <f>COUNTA(Productos!D47:D62)</f>
+        <f>COUNTA(Productos!D65:D69)</f>
         <v>0</v>
       </c>
       <c r="D25" s="10" t="e">
-        <f>COUNTIF((Productos!D47:D62),"x")/(COUNTIF((Productos!D47:D62),"x")+COUNTIF((Productos!E47:E62),"x"))</f>
+        <f>COUNTIF((Productos!D65:D69),"x")/(COUNTIF((Productos!D65:D69),"x")+COUNTIF((Productos!E65:E69),"x"))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="16.5" customHeight="1">
       <c r="B26" s="8" t="str">
-        <f>Productos!B64</f>
-        <v>Plan de Pruebas</v>
+        <f>Productos!B71</f>
+        <v>Carta de Aceptación</v>
       </c>
       <c r="C26" s="9">
-        <f>COUNTA(Productos!D65:D70)</f>
+        <f>COUNTA(Productos!D72:D74)</f>
         <v>0</v>
       </c>
       <c r="D26" s="10" t="e">
-        <f>COUNTIF((Productos!D65:D70),"x")/(COUNTIF((Productos!D65:D70),"x")+COUNTIF((Productos!E65:E70),"x"))</f>
+        <f>COUNTIF((Productos!D72:D74),"x")/(COUNTIF((Productos!D72:D74),"x")+COUNTIF((Productos!E72:E74),"x"))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B27" s="8" t="str">
-        <f>Productos!B72</f>
-        <v>Carta de Aceptación</v>
-      </c>
-      <c r="C27" s="9">
-        <f>COUNTA(Productos!D73:D76)</f>
+    <row r="27" spans="2:8" ht="19.5" customHeight="1"/>
+    <row r="28" spans="2:8" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="B28" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="2:8" s="3" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B29" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="2:8" s="3" customFormat="1" ht="16.5">
+      <c r="B30" s="8" t="str">
+        <f>[1]Fisica!B4</f>
+        <v>Elementos de Configuración</v>
+      </c>
+      <c r="C30" s="12">
+        <f>COUNTA(Física!D6:D8)</f>
         <v>0</v>
       </c>
-      <c r="D27" s="10" t="e">
-        <f>COUNTIF((Productos!D73:D76),"x")/(COUNTIF((Productos!D73:D76),"x")+COUNTIF((Productos!E73:E76),"x"))</f>
+      <c r="D30" s="10" t="e">
+        <f>COUNTIF((Física!D6:D8),"x")/(COUNTIF((Física!D6:D8),"x")+COUNTIF((Física!E6:E8),"x"))</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" ht="16.5" customHeight="1">
-      <c r="B28" s="8" t="str">
-        <f>Productos!B78</f>
-        <v>Reporte de Monitoreo</v>
-      </c>
-      <c r="C28" s="9">
-        <f>COUNTA(Productos!D79:D85)</f>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="2:8" s="3" customFormat="1" ht="16.5">
+      <c r="B31" s="8" t="str">
+        <f>[1]Fisica!B9</f>
+        <v>Línea Base</v>
+      </c>
+      <c r="C31" s="12">
+        <f>COUNTA(Física!D11:D14)</f>
         <v>0</v>
       </c>
-      <c r="D28" s="10" t="e">
-        <f>COUNTIF((Productos!D79:D85),"x")/(COUNTIF((Productos!D79:D85),"x")+COUNTIF((Productos!E79:E85),"x"))</f>
+      <c r="D31" s="10" t="e">
+        <f>COUNTIF((Física!D11:D14),"x")/(COUNTIF((Física!D11:D14),"x")+COUNTIF((Física!E11:E14),"x"))</f>
         <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="19.5" customHeight="1"/>
-    <row r="30" spans="2:8" s="3" customFormat="1" ht="18" customHeight="1">
-      <c r="B30" s="72" t="s">
-        <v>139</v>
-      </c>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="2:8" s="3" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B31" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>10</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="2:8" s="3" customFormat="1" ht="16.5">
       <c r="B32" s="8" t="str">
-        <f>[1]Fisica!B4</f>
-        <v>Elementos de Configuración</v>
-      </c>
-      <c r="C32" s="12">
-        <f>COUNTA(Física!D6:D8)</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="10" t="e">
-        <f>COUNTIF((Física!D6:D8),"x")/(COUNTIF((Física!D6:D8),"x")+COUNTIF((Física!E6:E8),"x"))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="2:5" s="3" customFormat="1" ht="16.5">
-      <c r="B33" s="8" t="str">
-        <f>[1]Fisica!B9</f>
-        <v>Línea Base</v>
-      </c>
-      <c r="C33" s="12">
-        <f>COUNTA(Física!D11:D14)</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="10" t="e">
-        <f>COUNTIF((Física!D11:D14),"x")/(COUNTIF((Física!D11:D14),"x")+COUNTIF((Física!E11:E14),"x"))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="2:5" s="3" customFormat="1" ht="16.5">
-      <c r="B34" s="8" t="str">
         <f>[1]Fisica!B15</f>
         <v>Control de Cambios</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C32" s="12">
         <f>COUNTA(Física!D17)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="10" t="e">
+      <c r="D32" s="10" t="e">
         <f>COUNTIF((Física!D17:D17),"x")/(COUNTIF((Física!D17:D17),"x")+COUNTIF((Física!E17:E17),"x"))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="2:5" s="3" customFormat="1"/>
-    <row r="36" spans="2:5" s="3" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B36" s="71" t="s">
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="2:5" s="3" customFormat="1"/>
+    <row r="34" spans="2:5" s="3" customFormat="1" ht="18.75" customHeight="1">
+      <c r="B34" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="2:5" s="3" customFormat="1" ht="16.5">
+      <c r="B35" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="2:5" s="3" customFormat="1" ht="16.5">
+      <c r="B36" s="11" t="str">
+        <f>[1]Funcional!B4</f>
+        <v>Líneas Base</v>
+      </c>
+      <c r="C36" s="9">
+        <f>COUNTA(Funcional!D6:D9)</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="10" t="e">
+        <f>COUNTIF((Funcional!D6:D9),"x")/(COUNTIF((Funcional!D6:D9),"x")+COUNTIF((Funcional!E6:E9),"x"))</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="2:5" s="3" customFormat="1" ht="16.5">
-      <c r="B37" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="4"/>
+      <c r="B37" s="11" t="str">
+        <f>[1]Funcional!B10</f>
+        <v>Entregables</v>
+      </c>
+      <c r="C37" s="9">
+        <f>COUNTA(Funcional!D12:D19)</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="10" t="e">
+        <f>COUNTIF((Funcional!D12:D19),"x")/(COUNTIF((Funcional!D12:D19),"x")+COUNTIF((Funcional!E12:E19),"x"))</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="38" spans="2:5" s="3" customFormat="1" ht="16.5">
       <c r="B38" s="11" t="str">
-        <f>[1]Funcional!B4</f>
-        <v>Líneas Base</v>
-      </c>
-      <c r="C38" s="9">
-        <f>COUNTA(Funcional!D6:D9)</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="10" t="e">
-        <f>COUNTIF((Funcional!D6:D9),"x")/(COUNTIF((Funcional!D6:D9),"x")+COUNTIF((Funcional!E6:E9),"x"))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E38" s="4"/>
-    </row>
-    <row r="39" spans="2:5" s="3" customFormat="1" ht="16.5">
-      <c r="B39" s="11" t="str">
-        <f>[1]Funcional!B10</f>
-        <v>Entregables</v>
-      </c>
-      <c r="C39" s="9">
-        <f>COUNTA(Funcional!D12:D19)</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="10" t="e">
-        <f>COUNTIF((Funcional!D12:D19),"x")/(COUNTIF((Funcional!D12:D19),"x")+COUNTIF((Funcional!E12:E19),"x"))</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" s="3" customFormat="1" ht="16.5">
-      <c r="B40" s="11" t="str">
         <f>[1]Funcional!B20</f>
         <v>Control de Cambios</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C38" s="9">
         <f>COUNTA(Funcional!D22:D26)</f>
         <v>0</v>
       </c>
-      <c r="D40" s="10" t="e">
+      <c r="D38" s="10" t="e">
         <f>COUNTIF((Funcional!D22:D26),"x")/(COUNTIF((Funcional!D22:D26),"x")+COUNTIF((Funcional!E22:E26),"x"))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="2:5" s="3" customFormat="1"/>
-    <row r="42" spans="2:5" s="3" customFormat="1"/>
+    <row r="39" spans="2:5" s="3" customFormat="1"/>
+    <row r="40" spans="2:5" s="3" customFormat="1"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B34:D34"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="C6:F6"/>
@@ -3404,10 +3314,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G44"/>
+  <dimension ref="B1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -3430,478 +3340,404 @@
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="2:7" ht="21" customHeight="1">
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86" t="s">
+      <c r="C3" s="85"/>
+      <c r="D3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86" t="s">
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="21" customHeight="1">
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="53" t="s">
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="86"/>
+      <c r="G4" s="85"/>
     </row>
     <row r="5" spans="2:7" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-    </row>
-    <row r="6" spans="2:7" s="24" customFormat="1" ht="16.5">
-      <c r="B6" s="20">
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+    </row>
+    <row r="6" spans="2:7" s="23" customFormat="1" ht="16.5">
+      <c r="B6" s="19">
         <v>1</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
-    </row>
-    <row r="7" spans="2:7" s="24" customFormat="1" ht="16.5">
-      <c r="B7" s="20">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="2:7" s="23" customFormat="1" ht="16.5">
+      <c r="B7" s="19">
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23"/>
-    </row>
-    <row r="8" spans="2:7" s="24" customFormat="1" ht="16.5">
-      <c r="B8" s="20">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
+    </row>
+    <row r="8" spans="2:7" s="23" customFormat="1" ht="16.5">
+      <c r="B8" s="19">
         <f t="shared" ref="B8:B11" si="0">B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23"/>
-    </row>
-    <row r="9" spans="2:7" s="24" customFormat="1" ht="16.5">
-      <c r="B9" s="20">
+      <c r="C8" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
+    </row>
+    <row r="9" spans="2:7" s="23" customFormat="1" ht="16.5">
+      <c r="B9" s="19">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23"/>
-    </row>
-    <row r="10" spans="2:7" s="24" customFormat="1" ht="16.5">
-      <c r="B10" s="20">
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
+    </row>
+    <row r="10" spans="2:7" s="23" customFormat="1" ht="16.5">
+      <c r="B10" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
-    </row>
-    <row r="11" spans="2:7" s="24" customFormat="1" ht="16.5">
-      <c r="B11" s="20">
+      <c r="C10" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
+    </row>
+    <row r="11" spans="2:7" s="23" customFormat="1" ht="16.5">
+      <c r="B11" s="19">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23"/>
-    </row>
-    <row r="12" spans="2:7" s="24" customFormat="1" ht="16.5"/>
+      <c r="C11" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" spans="2:7" s="23" customFormat="1" ht="16.5"/>
     <row r="13" spans="2:7" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="B13" s="83" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="84"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-    </row>
-    <row r="14" spans="2:7" s="24" customFormat="1" ht="16.5">
-      <c r="B14" s="20">
+      <c r="B13" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="83"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+    </row>
+    <row r="14" spans="2:7" s="23" customFormat="1" ht="16.5">
+      <c r="B14" s="19">
         <v>1</v>
       </c>
-      <c r="C14" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23"/>
-    </row>
-    <row r="15" spans="2:7" s="24" customFormat="1" ht="16.5">
-      <c r="B15" s="20">
+      <c r="C14" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
+    </row>
+    <row r="15" spans="2:7" s="23" customFormat="1" ht="16.5">
+      <c r="B15" s="19">
         <f>B14+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="23"/>
-    </row>
-    <row r="16" spans="2:7" s="24" customFormat="1" ht="16.5">
-      <c r="B16" s="20">
+      <c r="C15" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
+    </row>
+    <row r="16" spans="2:7" s="23" customFormat="1" ht="16.5">
+      <c r="B16" s="19">
         <f t="shared" ref="B16:B20" si="1">B15+1</f>
         <v>3</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23"/>
-    </row>
-    <row r="17" spans="2:7" s="24" customFormat="1" ht="16.5">
-      <c r="B17" s="20">
+      <c r="C16" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
+    </row>
+    <row r="17" spans="2:7" s="23" customFormat="1" ht="16.5">
+      <c r="B17" s="19">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C17" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="23"/>
-    </row>
-    <row r="18" spans="2:7" s="24" customFormat="1" ht="16.5">
-      <c r="B18" s="20">
+      <c r="C17" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18" spans="2:7" s="23" customFormat="1" ht="16.5">
+      <c r="B18" s="19">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C18" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="23"/>
-    </row>
-    <row r="19" spans="2:7" s="24" customFormat="1" ht="16.5">
-      <c r="B19" s="20">
+      <c r="C18" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
+    </row>
+    <row r="19" spans="2:7" s="23" customFormat="1" ht="16.5">
+      <c r="B19" s="19">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C19" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="23"/>
-    </row>
-    <row r="20" spans="2:7" s="24" customFormat="1" ht="16.5">
-      <c r="B20" s="20">
+      <c r="C19" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
+    </row>
+    <row r="20" spans="2:7" s="23" customFormat="1" ht="16.5">
+      <c r="B20" s="19">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="23"/>
-    </row>
-    <row r="21" spans="2:7" s="24" customFormat="1" ht="16.5"/>
+      <c r="C20" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
+    </row>
+    <row r="21" spans="2:7" s="23" customFormat="1" ht="16.5"/>
     <row r="22" spans="2:7" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="B22" s="83" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="84"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-    </row>
-    <row r="23" spans="2:7" s="24" customFormat="1" ht="16.5">
-      <c r="B23" s="20">
+      <c r="B22" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="83"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+    </row>
+    <row r="23" spans="2:7" s="23" customFormat="1" ht="16.5">
+      <c r="B23" s="19">
         <v>1</v>
       </c>
-      <c r="C23" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="23"/>
-    </row>
-    <row r="24" spans="2:7" s="24" customFormat="1" ht="16.5">
-      <c r="B24" s="20">
+      <c r="C23" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="22"/>
+    </row>
+    <row r="24" spans="2:7" s="23" customFormat="1" ht="16.5">
+      <c r="B24" s="19">
         <f>+B23+1</f>
         <v>2</v>
       </c>
-      <c r="C24" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="23"/>
-    </row>
-    <row r="25" spans="2:7" s="24" customFormat="1" ht="16.5">
-      <c r="B25" s="20">
+      <c r="C24" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="22"/>
+    </row>
+    <row r="25" spans="2:7" s="23" customFormat="1" ht="16.5">
+      <c r="B25" s="19">
         <f>+B24+1</f>
         <v>3</v>
       </c>
-      <c r="C25" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="23"/>
-    </row>
-    <row r="26" spans="2:7" s="24" customFormat="1" ht="16.5">
-      <c r="B26" s="20">
+      <c r="C25" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="22"/>
+    </row>
+    <row r="26" spans="2:7" s="23" customFormat="1" ht="16.5">
+      <c r="B26" s="19">
         <f t="shared" ref="B26:B30" si="2">+B25+1</f>
         <v>4</v>
       </c>
-      <c r="C26" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="23"/>
-    </row>
-    <row r="27" spans="2:7" s="24" customFormat="1" ht="16.5">
-      <c r="B27" s="20">
+      <c r="C26" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
+    </row>
+    <row r="27" spans="2:7" s="23" customFormat="1" ht="16.5">
+      <c r="B27" s="19">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="C27" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="23"/>
-    </row>
-    <row r="28" spans="2:7" s="24" customFormat="1" ht="16.5">
-      <c r="B28" s="20">
+      <c r="C27" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="22"/>
+    </row>
+    <row r="28" spans="2:7" s="23" customFormat="1" ht="16.5">
+      <c r="B28" s="19">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="C28" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="23"/>
-    </row>
-    <row r="29" spans="2:7" s="24" customFormat="1" ht="16.5">
-      <c r="B29" s="20">
+      <c r="C28" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
+    </row>
+    <row r="29" spans="2:7" s="23" customFormat="1" ht="16.5">
+      <c r="B29" s="19">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C29" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="23"/>
-    </row>
-    <row r="30" spans="2:7" s="24" customFormat="1" ht="16.5">
-      <c r="B30" s="20">
+      <c r="C29" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="22"/>
+    </row>
+    <row r="30" spans="2:7" s="23" customFormat="1" ht="16.5">
+      <c r="B30" s="19">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="C30" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="23"/>
-    </row>
-    <row r="31" spans="2:7" s="24" customFormat="1" ht="16.5"/>
+      <c r="C30" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="22"/>
+    </row>
+    <row r="31" spans="2:7" s="23" customFormat="1" ht="16.5"/>
     <row r="32" spans="2:7" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="B32" s="82" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="82"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-    </row>
-    <row r="33" spans="2:7" s="24" customFormat="1" ht="16.5">
-      <c r="B33" s="20">
+      <c r="B32" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="90"/>
+    </row>
+    <row r="33" spans="2:7" s="23" customFormat="1" ht="16.5">
+      <c r="B33" s="19">
         <v>1</v>
       </c>
-      <c r="C33" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="23"/>
-    </row>
-    <row r="34" spans="2:7" s="24" customFormat="1" ht="16.5">
-      <c r="B34" s="20">
+      <c r="C33" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="22"/>
+    </row>
+    <row r="34" spans="2:7" s="23" customFormat="1" ht="16.5">
+      <c r="B34" s="19">
         <f>+B33+1</f>
         <v>2</v>
       </c>
-      <c r="C34" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="23"/>
-    </row>
-    <row r="35" spans="2:7" s="24" customFormat="1" ht="16.5">
-      <c r="B35" s="20">
+      <c r="C34" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="22"/>
+    </row>
+    <row r="35" spans="2:7" s="23" customFormat="1" ht="16.5">
+      <c r="B35" s="19">
         <f t="shared" ref="B35:B36" si="3">+B34+1</f>
         <v>3</v>
       </c>
-      <c r="C35" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="23"/>
-    </row>
-    <row r="36" spans="2:7" s="24" customFormat="1" ht="16.5">
-      <c r="B36" s="20">
+      <c r="C35" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="22"/>
+    </row>
+    <row r="36" spans="2:7" s="23" customFormat="1" ht="16.5">
+      <c r="B36" s="19">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="C36" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="23"/>
-    </row>
-    <row r="37" spans="2:7" s="24" customFormat="1" ht="16.5"/>
-    <row r="38" spans="2:7" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="B38" s="82" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="82"/>
-    </row>
-    <row r="39" spans="2:7" s="24" customFormat="1" ht="17.25" customHeight="1">
-      <c r="B39" s="20">
-        <v>1</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="23"/>
-    </row>
-    <row r="40" spans="2:7" s="24" customFormat="1" ht="17.25" customHeight="1">
-      <c r="B40" s="20">
-        <f>B39+1</f>
-        <v>2</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="23"/>
-    </row>
-    <row r="41" spans="2:7" s="24" customFormat="1" ht="17.25" customHeight="1">
-      <c r="B41" s="20">
-        <f t="shared" ref="B41:B43" si="4">B40+1</f>
-        <v>3</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="23"/>
-    </row>
-    <row r="42" spans="2:7" s="24" customFormat="1" ht="17.25" customHeight="1">
-      <c r="B42" s="20">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="23"/>
-    </row>
-    <row r="43" spans="2:7" s="24" customFormat="1" ht="17.25" customHeight="1">
-      <c r="B43" s="20">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="23"/>
-    </row>
-    <row r="44" spans="2:7" s="24" customFormat="1" ht="16.5">
-      <c r="B44" s="26"/>
-      <c r="C44" s="27"/>
+      <c r="C36" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="22"/>
+    </row>
+    <row r="37" spans="2:7" s="23" customFormat="1" ht="16.5"/>
+    <row r="38" spans="2:7" s="23" customFormat="1" ht="16.5">
+      <c r="B38" s="25"/>
+      <c r="C38" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="13">
     <mergeCell ref="B3:C4"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:G4"/>
@@ -3909,23 +3745,15 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D32:G32"/>
   </mergeCells>
-  <conditionalFormatting sqref="D23:F30">
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
-      <formula>IF($D$32,TRUE,FALSE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28:C30">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="D23:F30 C28:C30">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF($D$32,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3937,10 +3765,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G86"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3956,1117 +3784,988 @@
     <row r="1" spans="1:7" ht="67.5" customHeight="1"/>
     <row r="2" spans="1:7">
       <c r="A2" s="15"/>
-      <c r="B2" s="47"/>
+      <c r="B2" s="46"/>
       <c r="C2" s="15"/>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" s="35" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A3" s="34"/>
-      <c r="B3" s="86" t="s">
+    <row r="3" spans="1:7" s="34" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A3" s="33"/>
+      <c r="B3" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86" t="s">
+      <c r="C3" s="85"/>
+      <c r="D3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86" t="s">
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="35" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A4" s="34"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="53" t="s">
+    <row r="4" spans="1:7" s="34" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A4" s="33"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="86"/>
-    </row>
-    <row r="5" spans="1:7" s="29" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A5" s="28"/>
-      <c r="B5" s="85" t="s">
-        <v>146</v>
-      </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-    </row>
-    <row r="6" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A6" s="32"/>
-      <c r="B6" s="45">
+      <c r="G4" s="85"/>
+    </row>
+    <row r="5" spans="1:7" s="28" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A5" s="27"/>
+      <c r="B5" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+    </row>
+    <row r="6" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A6" s="31"/>
+      <c r="B6" s="44">
         <v>1</v>
       </c>
-      <c r="C6" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="40"/>
-    </row>
-    <row r="7" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A7" s="32"/>
-      <c r="B7" s="46">
+      <c r="C6" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="37"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="39"/>
+    </row>
+    <row r="7" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A7" s="31"/>
+      <c r="B7" s="45">
         <f>+B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="40"/>
-    </row>
-    <row r="8" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A8" s="32"/>
-      <c r="B8" s="46">
+      <c r="C7" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="39"/>
+    </row>
+    <row r="8" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A8" s="31"/>
+      <c r="B8" s="45">
         <f t="shared" ref="B8:B16" si="0">+B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="40"/>
-    </row>
-    <row r="9" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A9" s="32"/>
-      <c r="B9" s="46">
+      <c r="C8" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="39"/>
+    </row>
+    <row r="9" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A9" s="31"/>
+      <c r="B9" s="45">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
-    </row>
-    <row r="10" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A10" s="32"/>
-      <c r="B10" s="46">
+      <c r="C9" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="39"/>
+    </row>
+    <row r="10" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A10" s="31"/>
+      <c r="B10" s="45">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="40"/>
-    </row>
-    <row r="11" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A11" s="32"/>
-      <c r="B11" s="46">
+      <c r="C10" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="39"/>
+    </row>
+    <row r="11" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A11" s="31"/>
+      <c r="B11" s="45">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="40"/>
-    </row>
-    <row r="12" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A12" s="32"/>
-      <c r="B12" s="46">
+      <c r="C11" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="39"/>
+    </row>
+    <row r="12" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A12" s="31"/>
+      <c r="B12" s="45">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="40"/>
-    </row>
-    <row r="13" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A13" s="32"/>
-      <c r="B13" s="46">
+      <c r="C12" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="39"/>
+    </row>
+    <row r="13" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A13" s="31"/>
+      <c r="B13" s="45">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="40"/>
-    </row>
-    <row r="14" spans="1:7" s="33" customFormat="1" ht="33">
-      <c r="A14" s="32"/>
-      <c r="B14" s="46">
+      <c r="C13" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+    </row>
+    <row r="14" spans="1:7" s="32" customFormat="1" ht="33">
+      <c r="A14" s="31"/>
+      <c r="B14" s="45">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C14" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="40"/>
-    </row>
-    <row r="15" spans="1:7" s="33" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A15" s="32"/>
-      <c r="B15" s="46">
+      <c r="C14" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+    </row>
+    <row r="15" spans="1:7" s="32" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A15" s="31"/>
+      <c r="B15" s="45">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="40"/>
-    </row>
-    <row r="16" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A16" s="32"/>
-      <c r="B16" s="46">
+      <c r="C15" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="39"/>
+    </row>
+    <row r="16" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A16" s="31"/>
+      <c r="B16" s="45">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="40"/>
-    </row>
-    <row r="17" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A17" s="32"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-    </row>
-    <row r="18" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A18" s="43"/>
-      <c r="B18" s="85" t="s">
+      <c r="C16" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="39"/>
+    </row>
+    <row r="17" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A17" s="31"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+    </row>
+    <row r="18" spans="1:7" s="43" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A18" s="42"/>
+      <c r="B18" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-    </row>
-    <row r="19" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A19" s="32"/>
-      <c r="B19" s="46">
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+    </row>
+    <row r="19" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A19" s="31"/>
+      <c r="B19" s="45">
         <v>1</v>
       </c>
-      <c r="C19" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="40"/>
-    </row>
-    <row r="20" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A20" s="32"/>
-      <c r="B20" s="46">
+      <c r="C19" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
+    </row>
+    <row r="20" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A20" s="31"/>
+      <c r="B20" s="45">
         <f>B19+1</f>
         <v>2</v>
       </c>
-      <c r="C20" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="40"/>
-    </row>
-    <row r="21" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A21" s="32"/>
-      <c r="B21" s="46">
+      <c r="C20" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="39"/>
+    </row>
+    <row r="21" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A21" s="31"/>
+      <c r="B21" s="45">
         <f t="shared" ref="B21:B31" si="1">B20+1</f>
         <v>3</v>
       </c>
-      <c r="C21" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="40"/>
-    </row>
-    <row r="22" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A22" s="32"/>
-      <c r="B22" s="46">
+      <c r="C21" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="39"/>
+    </row>
+    <row r="22" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A22" s="31"/>
+      <c r="B22" s="45">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C22" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="40"/>
-    </row>
-    <row r="23" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A23" s="32"/>
-      <c r="B23" s="46">
+      <c r="C22" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
+    </row>
+    <row r="23" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A23" s="31"/>
+      <c r="B23" s="45">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C23" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="D23" s="38"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="40"/>
-    </row>
-    <row r="24" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A24" s="32"/>
-      <c r="B24" s="46">
+      <c r="C23" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="39"/>
+    </row>
+    <row r="24" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A24" s="31"/>
+      <c r="B24" s="45">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C24" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="40"/>
-    </row>
-    <row r="25" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A25" s="32"/>
-      <c r="B25" s="46">
+      <c r="C24" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="39"/>
+    </row>
+    <row r="25" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A25" s="31"/>
+      <c r="B25" s="45">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C25" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="40"/>
-    </row>
-    <row r="26" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A26" s="32"/>
-      <c r="B26" s="46">
+      <c r="C25" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="39"/>
+    </row>
+    <row r="26" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A26" s="31"/>
+      <c r="B26" s="45">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C26" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="D26" s="38"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="40"/>
-    </row>
-    <row r="27" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A27" s="32"/>
-      <c r="B27" s="46">
+      <c r="C26" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="39"/>
+    </row>
+    <row r="27" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A27" s="31"/>
+      <c r="B27" s="45">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C27" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="D27" s="38"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="40"/>
-    </row>
-    <row r="28" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A28" s="32"/>
-      <c r="B28" s="46">
+      <c r="C27" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="39"/>
+    </row>
+    <row r="28" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A28" s="31"/>
+      <c r="B28" s="45">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C28" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" s="38"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="40"/>
-    </row>
-    <row r="29" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A29" s="32"/>
-      <c r="B29" s="46">
+      <c r="C28" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="39"/>
+    </row>
+    <row r="29" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A29" s="31"/>
+      <c r="B29" s="45">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C29" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="D29" s="38"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="40"/>
-    </row>
-    <row r="30" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A30" s="32"/>
-      <c r="B30" s="46">
+      <c r="C29" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="39"/>
+    </row>
+    <row r="30" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A30" s="31"/>
+      <c r="B30" s="45">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C30" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="D30" s="38"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="40"/>
-    </row>
-    <row r="31" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A31" s="32"/>
-      <c r="B31" s="46">
+      <c r="C30" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="39"/>
+    </row>
+    <row r="31" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A31" s="31"/>
+      <c r="B31" s="45">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C31" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="D31" s="38"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="40"/>
-    </row>
-    <row r="32" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A32" s="32"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-    </row>
-    <row r="33" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A33" s="43"/>
-      <c r="B33" s="85" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="85"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
-    </row>
-    <row r="34" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A34" s="32"/>
-      <c r="B34" s="46">
+      <c r="C31" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D31" s="37"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="39"/>
+    </row>
+    <row r="32" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A32" s="31"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+    </row>
+    <row r="33" spans="1:7" s="43" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A33" s="42"/>
+      <c r="B33" s="84" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="84"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="84"/>
+    </row>
+    <row r="34" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A34" s="31"/>
+      <c r="B34" s="45">
         <v>1</v>
       </c>
-      <c r="C34" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="23"/>
-    </row>
-    <row r="35" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A35" s="32"/>
-      <c r="B35" s="46">
+      <c r="C34" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="22"/>
+    </row>
+    <row r="35" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A35" s="31"/>
+      <c r="B35" s="45">
         <f>+B34+1</f>
         <v>2</v>
       </c>
-      <c r="C35" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="23"/>
-    </row>
-    <row r="36" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A36" s="32"/>
-      <c r="B36" s="46">
+      <c r="C35" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="22"/>
+    </row>
+    <row r="36" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A36" s="31"/>
+      <c r="B36" s="45">
         <f t="shared" ref="B36:B44" si="2">+B35+1</f>
         <v>3</v>
       </c>
-      <c r="C36" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="23"/>
-    </row>
-    <row r="37" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A37" s="32"/>
-      <c r="B37" s="46">
+      <c r="C36" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="22"/>
+    </row>
+    <row r="37" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A37" s="31"/>
+      <c r="B37" s="45">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="C37" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="23"/>
-    </row>
-    <row r="38" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A38" s="32"/>
-      <c r="B38" s="46">
+      <c r="C37" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="22"/>
+    </row>
+    <row r="38" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A38" s="31"/>
+      <c r="B38" s="45">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="C38" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="23"/>
-    </row>
-    <row r="39" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A39" s="32"/>
-      <c r="B39" s="46">
+      <c r="C38" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="22"/>
+    </row>
+    <row r="39" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A39" s="31"/>
+      <c r="B39" s="45">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="C39" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="23"/>
-    </row>
-    <row r="40" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A40" s="32"/>
-      <c r="B40" s="46">
+      <c r="C39" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="22"/>
+    </row>
+    <row r="40" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A40" s="31"/>
+      <c r="B40" s="45">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="23"/>
-    </row>
-    <row r="41" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A41" s="32"/>
-      <c r="B41" s="46">
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="22"/>
+    </row>
+    <row r="41" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A41" s="31"/>
+      <c r="B41" s="45">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="23"/>
-    </row>
-    <row r="42" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A42" s="32"/>
-      <c r="B42" s="46">
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="22"/>
+    </row>
+    <row r="42" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A42" s="31"/>
+      <c r="B42" s="45">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="C42" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="23"/>
-    </row>
-    <row r="43" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A43" s="32"/>
-      <c r="B43" s="46">
+      <c r="C42" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="22"/>
+    </row>
+    <row r="43" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A43" s="31"/>
+      <c r="B43" s="45">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="C43" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="23"/>
-    </row>
-    <row r="44" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A44" s="32"/>
-      <c r="B44" s="46">
+      <c r="C43" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="22"/>
+    </row>
+    <row r="44" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A44" s="31"/>
+      <c r="B44" s="45">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="C44" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="23"/>
-    </row>
-    <row r="45" spans="1:7" s="33" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A45" s="32"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-    </row>
-    <row r="46" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A46" s="43"/>
-      <c r="B46" s="85" t="s">
+      <c r="C44" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="22"/>
+    </row>
+    <row r="45" spans="1:7" s="32" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A45" s="31"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+    </row>
+    <row r="46" spans="1:7" s="43" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A46" s="42"/>
+      <c r="B46" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="85"/>
-      <c r="D46" s="85"/>
-      <c r="E46" s="85"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="85"/>
-    </row>
-    <row r="47" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A47" s="32"/>
-      <c r="B47" s="46">
+      <c r="C46" s="84"/>
+      <c r="D46" s="84"/>
+      <c r="E46" s="84"/>
+      <c r="F46" s="84"/>
+      <c r="G46" s="84"/>
+    </row>
+    <row r="47" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A47" s="31"/>
+      <c r="B47" s="45">
         <v>1</v>
       </c>
-      <c r="C47" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="23"/>
-    </row>
-    <row r="48" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A48" s="32"/>
-      <c r="B48" s="46">
+      <c r="C47" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="22"/>
+    </row>
+    <row r="48" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A48" s="31"/>
+      <c r="B48" s="45">
         <f>+B47+1</f>
         <v>2</v>
       </c>
-      <c r="C48" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="23"/>
-    </row>
-    <row r="49" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A49" s="32"/>
-      <c r="B49" s="46">
+      <c r="C48" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="22"/>
+    </row>
+    <row r="49" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A49" s="31"/>
+      <c r="B49" s="45">
         <f>+B48+1</f>
         <v>3</v>
       </c>
-      <c r="C49" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="23"/>
-    </row>
-    <row r="50" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A50" s="32"/>
-      <c r="B50" s="46">
+      <c r="C49" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="22"/>
+    </row>
+    <row r="50" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A50" s="31"/>
+      <c r="B50" s="45">
         <f>+B49+1</f>
         <v>4</v>
       </c>
-      <c r="C50" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="23"/>
-    </row>
-    <row r="51" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A51" s="32"/>
-      <c r="B51" s="46">
+      <c r="C50" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="22"/>
+    </row>
+    <row r="51" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A51" s="31"/>
+      <c r="B51" s="45">
         <f t="shared" ref="B51:B62" si="3">+B50+1</f>
         <v>5</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="23"/>
-    </row>
-    <row r="52" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A52" s="32"/>
-      <c r="B52" s="46">
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="22"/>
+    </row>
+    <row r="52" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A52" s="31"/>
+      <c r="B52" s="45">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="C52" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="23"/>
-    </row>
-    <row r="53" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A53" s="32"/>
-      <c r="B53" s="46">
+      <c r="C52" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="22"/>
+    </row>
+    <row r="53" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A53" s="31"/>
+      <c r="B53" s="45">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="C53" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="23"/>
-    </row>
-    <row r="54" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A54" s="32"/>
-      <c r="B54" s="46">
+      <c r="C53" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="22"/>
+    </row>
+    <row r="54" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A54" s="31"/>
+      <c r="B54" s="45">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="C54" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="23"/>
-    </row>
-    <row r="55" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A55" s="32"/>
-      <c r="B55" s="46">
+      <c r="C54" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="22"/>
+    </row>
+    <row r="55" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A55" s="31"/>
+      <c r="B55" s="45">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="C55" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="23"/>
-    </row>
-    <row r="56" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A56" s="32"/>
-      <c r="B56" s="46">
+      <c r="C55" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="22"/>
+    </row>
+    <row r="56" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A56" s="31"/>
+      <c r="B56" s="45">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="C56" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="23"/>
-    </row>
-    <row r="57" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A57" s="32"/>
-      <c r="B57" s="46">
+      <c r="C56" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="22"/>
+    </row>
+    <row r="57" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A57" s="31"/>
+      <c r="B57" s="45">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="C57" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="23"/>
-    </row>
-    <row r="58" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A58" s="32"/>
-      <c r="B58" s="46">
+      <c r="C57" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="22"/>
+    </row>
+    <row r="58" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A58" s="31"/>
+      <c r="B58" s="45">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="C58" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="23"/>
-    </row>
-    <row r="59" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A59" s="32"/>
-      <c r="B59" s="46">
+      <c r="C58" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="22"/>
+    </row>
+    <row r="59" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A59" s="31"/>
+      <c r="B59" s="45">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="C59" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="23"/>
-    </row>
-    <row r="60" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A60" s="32"/>
-      <c r="B60" s="46">
+      <c r="C59" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="22"/>
+    </row>
+    <row r="60" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A60" s="31"/>
+      <c r="B60" s="45">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="C60" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="23"/>
-    </row>
-    <row r="61" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A61" s="32"/>
-      <c r="B61" s="46">
+      <c r="C60" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="22"/>
+    </row>
+    <row r="61" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A61" s="31"/>
+      <c r="B61" s="45">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="C61" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="23"/>
-    </row>
-    <row r="62" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A62" s="32"/>
-      <c r="B62" s="46">
+      <c r="C61" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="22"/>
+    </row>
+    <row r="62" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A62" s="31"/>
+      <c r="B62" s="45">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="C62" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="23"/>
-    </row>
-    <row r="63" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A63" s="32"/>
-      <c r="B63" s="48"/>
-      <c r="C63" s="41"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="41"/>
-      <c r="F63" s="41"/>
-      <c r="G63" s="41"/>
-    </row>
-    <row r="64" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A64" s="43"/>
-      <c r="B64" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="C64" s="85"/>
-      <c r="D64" s="85"/>
-      <c r="E64" s="85"/>
-      <c r="F64" s="85"/>
-      <c r="G64" s="85"/>
-    </row>
-    <row r="65" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A65" s="32"/>
-      <c r="B65" s="48">
+      <c r="C62" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="22"/>
+    </row>
+    <row r="63" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A63" s="31"/>
+      <c r="B63" s="47"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="40"/>
+    </row>
+    <row r="64" spans="1:7" s="43" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A64" s="42"/>
+      <c r="B64" s="84" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" s="84"/>
+      <c r="D64" s="84"/>
+      <c r="E64" s="84"/>
+      <c r="F64" s="84"/>
+      <c r="G64" s="84"/>
+    </row>
+    <row r="65" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A65" s="31"/>
+      <c r="B65" s="47">
         <v>1</v>
       </c>
-      <c r="C65" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="23"/>
-    </row>
-    <row r="66" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A66" s="32"/>
-      <c r="B66" s="48">
+      <c r="C65" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="22"/>
+    </row>
+    <row r="66" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A66" s="31"/>
+      <c r="B66" s="47">
         <f>B65+1</f>
         <v>2</v>
       </c>
-      <c r="C66" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="23"/>
-    </row>
-    <row r="67" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A67" s="32"/>
-      <c r="B67" s="48">
-        <f t="shared" ref="B67:B70" si="4">B66+1</f>
+      <c r="C66" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="22"/>
+    </row>
+    <row r="67" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A67" s="31"/>
+      <c r="B67" s="47">
+        <f t="shared" ref="B67:B69" si="4">B66+1</f>
         <v>3</v>
       </c>
-      <c r="C67" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="23"/>
-    </row>
-    <row r="68" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A68" s="32"/>
-      <c r="B68" s="48">
+      <c r="C67" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="22"/>
+    </row>
+    <row r="68" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A68" s="31"/>
+      <c r="B68" s="47">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="C68" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="23"/>
-    </row>
-    <row r="69" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A69" s="32"/>
-      <c r="B69" s="48">
+      <c r="C68" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="22"/>
+    </row>
+    <row r="69" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A69" s="31"/>
+      <c r="B69" s="47">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C69" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="23"/>
-    </row>
-    <row r="70" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A70" s="32"/>
-      <c r="B70" s="48">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="C70" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="23"/>
-    </row>
-    <row r="71" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A71" s="32"/>
-      <c r="B71" s="48"/>
-      <c r="C71" s="41"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="41"/>
-      <c r="F71" s="41"/>
-      <c r="G71" s="41"/>
-    </row>
-    <row r="72" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A72" s="43"/>
-      <c r="B72" s="85" t="s">
-        <v>79</v>
-      </c>
-      <c r="C72" s="85"/>
-      <c r="D72" s="85"/>
-      <c r="E72" s="85"/>
-      <c r="F72" s="85"/>
-      <c r="G72" s="85"/>
-    </row>
-    <row r="73" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A73" s="32"/>
-      <c r="B73" s="48">
+      <c r="C69" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="22"/>
+    </row>
+    <row r="70" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A70" s="31"/>
+      <c r="B70" s="47"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="40"/>
+      <c r="G70" s="40"/>
+    </row>
+    <row r="71" spans="1:7" s="43" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A71" s="42"/>
+      <c r="B71" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71" s="84"/>
+      <c r="D71" s="84"/>
+      <c r="E71" s="84"/>
+      <c r="F71" s="84"/>
+      <c r="G71" s="84"/>
+    </row>
+    <row r="72" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A72" s="31"/>
+      <c r="B72" s="47">
         <v>1</v>
       </c>
-      <c r="C73" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="23"/>
-    </row>
-    <row r="74" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A74" s="32"/>
-      <c r="B74" s="48">
-        <f>B73+1</f>
+      <c r="C72" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="22"/>
+    </row>
+    <row r="73" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A73" s="31"/>
+      <c r="B73" s="47">
+        <f>B72+1</f>
         <v>2</v>
       </c>
-      <c r="C74" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="23"/>
-    </row>
-    <row r="75" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A75" s="32"/>
-      <c r="B75" s="48">
-        <f t="shared" ref="B75:B76" si="5">B74+1</f>
+      <c r="C73" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="22"/>
+    </row>
+    <row r="74" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A74" s="31"/>
+      <c r="B74" s="47">
+        <f t="shared" ref="B74" si="5">B73+1</f>
         <v>3</v>
       </c>
-      <c r="C75" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="23"/>
-    </row>
-    <row r="76" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A76" s="32"/>
-      <c r="B76" s="48">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="C76" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="23"/>
-    </row>
-    <row r="77" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="A77" s="32"/>
-      <c r="B77" s="48"/>
-      <c r="C77" s="41"/>
-      <c r="D77" s="41"/>
-      <c r="E77" s="41"/>
-      <c r="F77" s="41"/>
-      <c r="G77" s="41"/>
-    </row>
-    <row r="78" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A78" s="43"/>
-      <c r="B78" s="85" t="s">
-        <v>80</v>
-      </c>
-      <c r="C78" s="85"/>
-      <c r="D78" s="85"/>
-      <c r="E78" s="85"/>
-      <c r="F78" s="85"/>
-      <c r="G78" s="85"/>
-    </row>
-    <row r="79" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="B79" s="46">
-        <v>1</v>
-      </c>
-      <c r="C79" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="23"/>
-    </row>
-    <row r="80" spans="1:7" s="33" customFormat="1" ht="16.5">
-      <c r="B80" s="46">
-        <f>B79+1</f>
-        <v>2</v>
-      </c>
-      <c r="C80" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="23"/>
-    </row>
-    <row r="81" spans="2:7" s="33" customFormat="1" ht="16.5">
-      <c r="B81" s="46">
-        <f t="shared" ref="B81:B85" si="6">B80+1</f>
-        <v>3</v>
-      </c>
-      <c r="C81" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="23"/>
-    </row>
-    <row r="82" spans="2:7" s="33" customFormat="1" ht="16.5">
-      <c r="B82" s="46">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="C82" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="23"/>
-    </row>
-    <row r="83" spans="2:7" s="33" customFormat="1" ht="16.5">
-      <c r="B83" s="46">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="C83" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="23"/>
-    </row>
-    <row r="84" spans="2:7" s="33" customFormat="1" ht="16.5">
-      <c r="B84" s="46">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="C84" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="23"/>
-    </row>
-    <row r="85" spans="2:7" s="33" customFormat="1" ht="16.5">
-      <c r="B85" s="46">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="C85" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D85" s="22"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="23"/>
-    </row>
-    <row r="86" spans="2:7">
-      <c r="C86" s="31"/>
+      <c r="C74" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="22"/>
+    </row>
+    <row r="75" spans="1:7" s="32" customFormat="1" ht="16.5">
+      <c r="A75" s="31"/>
+      <c r="B75" s="47"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="40"/>
+      <c r="F75" s="40"/>
+      <c r="G75" s="40"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="C76" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="21">
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="B5:C5"/>
@@ -5085,14 +4784,11 @@
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="F64:G64"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:G71"/>
   </mergeCells>
-  <conditionalFormatting sqref="C86">
+  <conditionalFormatting sqref="C76">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!,TRUE,FALSE)</formula>
     </cfRule>
@@ -5108,298 +4804,298 @@
   <dimension ref="B1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:G20"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="50" customWidth="1"/>
-    <col min="2" max="2" width="3.140625" style="52" customWidth="1"/>
-    <col min="3" max="3" width="73.140625" style="50" customWidth="1"/>
-    <col min="4" max="6" width="11.42578125" style="52"/>
-    <col min="7" max="7" width="26.140625" style="50" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="50"/>
-    <col min="9" max="9" width="5.42578125" style="51" customWidth="1"/>
-    <col min="10" max="10" width="3.85546875" style="50" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="50" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="50"/>
+    <col min="1" max="1" width="1.7109375" style="49" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" style="51" customWidth="1"/>
+    <col min="3" max="3" width="73.140625" style="49" customWidth="1"/>
+    <col min="4" max="6" width="11.42578125" style="51"/>
+    <col min="7" max="7" width="26.140625" style="49" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="49"/>
+    <col min="9" max="9" width="5.42578125" style="50" customWidth="1"/>
+    <col min="10" max="10" width="3.85546875" style="49" customWidth="1"/>
+    <col min="11" max="11" width="4.85546875" style="49" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="67.5" customHeight="1"/>
     <row r="3" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86" t="s">
+      <c r="C3" s="85"/>
+      <c r="D3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86" t="s">
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
     </row>
     <row r="4" spans="2:12" ht="17.25">
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="53" t="s">
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="86"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-    </row>
-    <row r="5" spans="2:12" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B5" s="85" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-    </row>
-    <row r="6" spans="2:12" s="59" customFormat="1" ht="33">
-      <c r="B6" s="36">
+      <c r="G4" s="85"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+    </row>
+    <row r="5" spans="2:12" s="54" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B5" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="84"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+    </row>
+    <row r="6" spans="2:12" s="58" customFormat="1" ht="33">
+      <c r="B6" s="35">
         <v>1</v>
       </c>
-      <c r="C6" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="58">
+      <c r="C6" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="37"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="57">
         <f>IF(E6="x",1,0)</f>
         <v>0</v>
       </c>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="57"/>
-    </row>
-    <row r="7" spans="2:12" s="59" customFormat="1" ht="33">
-      <c r="B7" s="36">
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="56"/>
+    </row>
+    <row r="7" spans="2:12" s="58" customFormat="1" ht="33">
+      <c r="B7" s="35">
         <v>2</v>
       </c>
-      <c r="C7" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="58">
+      <c r="C7" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="57">
         <f t="shared" ref="I7:I8" si="0">IF(E7="x",1,0)</f>
         <v>0</v>
       </c>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="57"/>
-    </row>
-    <row r="8" spans="2:12" s="59" customFormat="1" ht="33">
-      <c r="B8" s="36">
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="56"/>
+    </row>
+    <row r="8" spans="2:12" s="58" customFormat="1" ht="33">
+      <c r="B8" s="35">
         <v>3</v>
       </c>
-      <c r="C8" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="58">
+      <c r="C8" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="56"/>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="60"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="49"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="49"/>
-    </row>
-    <row r="10" spans="2:12" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B10" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="54"/>
-    </row>
-    <row r="11" spans="2:12" s="59" customFormat="1" ht="16.5">
-      <c r="B11" s="36">
+      <c r="B9" s="59"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="48"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="48"/>
+    </row>
+    <row r="10" spans="2:12" s="54" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B10" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="53"/>
+    </row>
+    <row r="11" spans="2:12" s="58" customFormat="1" ht="16.5">
+      <c r="B11" s="35">
         <v>4</v>
       </c>
-      <c r="C11" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="58">
+      <c r="C11" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="57">
         <f t="shared" ref="I11:I14" si="1">IF(E11="x",1,0)</f>
         <v>0</v>
       </c>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="57"/>
-    </row>
-    <row r="12" spans="2:12" s="59" customFormat="1" ht="16.5">
-      <c r="B12" s="36">
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="56"/>
+    </row>
+    <row r="12" spans="2:12" s="58" customFormat="1" ht="16.5">
+      <c r="B12" s="35">
         <v>5</v>
       </c>
-      <c r="C12" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="58">
+      <c r="C12" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="57"/>
-    </row>
-    <row r="13" spans="2:12" s="59" customFormat="1" ht="33">
-      <c r="B13" s="36">
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="56"/>
+    </row>
+    <row r="13" spans="2:12" s="58" customFormat="1" ht="33">
+      <c r="B13" s="35">
         <v>6</v>
       </c>
-      <c r="C13" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="58">
+      <c r="C13" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="57"/>
-    </row>
-    <row r="14" spans="2:12" s="59" customFormat="1" ht="33">
-      <c r="B14" s="36">
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="56"/>
+    </row>
+    <row r="14" spans="2:12" s="58" customFormat="1" ht="33">
+      <c r="B14" s="35">
         <v>7</v>
       </c>
-      <c r="C14" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="58">
+      <c r="C14" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="56"/>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="60"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="49"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="49"/>
-    </row>
-    <row r="16" spans="2:12" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B16" s="85" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="54"/>
-    </row>
-    <row r="17" spans="2:12" s="59" customFormat="1" ht="33">
-      <c r="B17" s="36">
+      <c r="B15" s="59"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="48"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="48"/>
+    </row>
+    <row r="16" spans="2:12" s="54" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B16" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="53"/>
+    </row>
+    <row r="17" spans="2:12" s="58" customFormat="1" ht="33">
+      <c r="B17" s="35">
         <v>8</v>
       </c>
-      <c r="C17" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="58">
+      <c r="C17" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="57">
         <f>IF(E17="x",1,0)</f>
         <v>0</v>
       </c>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="56"/>
     </row>
     <row r="18" spans="2:12">
-      <c r="I18" s="51">
+      <c r="I18" s="50">
         <f>SUM(I6:I17)</f>
         <v>0</v>
       </c>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -5428,7 +5124,7 @@
   <dimension ref="B1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:G26"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -5443,288 +5139,288 @@
   <sheetData>
     <row r="1" spans="2:7" ht="67.5" customHeight="1"/>
     <row r="3" spans="2:7" ht="17.25">
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86" t="s">
+      <c r="C3" s="85"/>
+      <c r="D3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86" t="s">
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="17.25">
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="53" t="s">
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="86"/>
+      <c r="G4" s="85"/>
     </row>
     <row r="5" spans="2:7" ht="15.75">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="81"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+    </row>
+    <row r="6" spans="2:7" s="32" customFormat="1" ht="16.5">
+      <c r="B6" s="19">
+        <v>1</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="60"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="62"/>
+    </row>
+    <row r="7" spans="2:7" s="32" customFormat="1" ht="33">
+      <c r="B7" s="19">
+        <v>2</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="60"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="63"/>
+    </row>
+    <row r="8" spans="2:7" s="32" customFormat="1" ht="18.75" customHeight="1">
+      <c r="B8" s="19">
+        <v>3</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="60"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="62"/>
+    </row>
+    <row r="9" spans="2:7" s="32" customFormat="1" ht="16.5">
+      <c r="B9" s="19">
+        <v>4</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="60"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
+    </row>
+    <row r="10" spans="2:7" s="32" customFormat="1" ht="16.5">
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+    </row>
+    <row r="11" spans="2:7" ht="17.25" customHeight="1">
+      <c r="B11" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="81"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+    </row>
+    <row r="12" spans="2:7" s="32" customFormat="1" ht="16.5">
+      <c r="B12" s="64">
+        <v>1</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="67"/>
+    </row>
+    <row r="13" spans="2:7" s="32" customFormat="1" ht="16.5">
+      <c r="B13" s="64">
+        <v>2</v>
+      </c>
+      <c r="C13" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="67"/>
+    </row>
+    <row r="14" spans="2:7" s="32" customFormat="1" ht="16.5">
+      <c r="B14" s="64">
+        <v>3</v>
+      </c>
+      <c r="C14" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-    </row>
-    <row r="6" spans="2:7" s="33" customFormat="1" ht="16.5">
-      <c r="B6" s="20">
-        <v>1</v>
-      </c>
-      <c r="C6" s="37" t="s">
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="67"/>
+    </row>
+    <row r="15" spans="2:7" s="32" customFormat="1" ht="16.5">
+      <c r="B15" s="64">
+        <v>4</v>
+      </c>
+      <c r="C15" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="63"/>
-    </row>
-    <row r="7" spans="2:7" s="33" customFormat="1" ht="33">
-      <c r="B7" s="20">
-        <v>2</v>
-      </c>
-      <c r="C7" s="37" t="s">
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="67"/>
+    </row>
+    <row r="16" spans="2:7" s="32" customFormat="1" ht="16.5">
+      <c r="B16" s="64">
+        <v>5</v>
+      </c>
+      <c r="C16" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="64"/>
-    </row>
-    <row r="8" spans="2:7" s="33" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B8" s="20">
-        <v>3</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="D8" s="61"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="63"/>
-    </row>
-    <row r="9" spans="2:7" s="33" customFormat="1" ht="16.5">
-      <c r="B9" s="20">
-        <v>4</v>
-      </c>
-      <c r="C9" s="37" t="s">
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="67"/>
+    </row>
+    <row r="17" spans="2:7" s="32" customFormat="1" ht="16.5">
+      <c r="B17" s="64">
+        <v>6</v>
+      </c>
+      <c r="C17" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="61"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="63"/>
-    </row>
-    <row r="10" spans="2:7" s="33" customFormat="1" ht="16.5">
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-    </row>
-    <row r="11" spans="2:7" ht="13.15" customHeight="1">
-      <c r="B11" s="85" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="85"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-    </row>
-    <row r="12" spans="2:7" s="33" customFormat="1" ht="16.5">
-      <c r="B12" s="65">
-        <v>1</v>
-      </c>
-      <c r="C12" s="66" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="68"/>
-    </row>
-    <row r="13" spans="2:7" s="33" customFormat="1" ht="16.5">
-      <c r="B13" s="65">
-        <v>2</v>
-      </c>
-      <c r="C13" s="66" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="68"/>
-    </row>
-    <row r="14" spans="2:7" s="33" customFormat="1" ht="16.5">
-      <c r="B14" s="65">
-        <v>3</v>
-      </c>
-      <c r="C14" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="68"/>
-    </row>
-    <row r="15" spans="2:7" s="33" customFormat="1" ht="16.5">
-      <c r="B15" s="65">
-        <v>4</v>
-      </c>
-      <c r="C15" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="68"/>
-    </row>
-    <row r="16" spans="2:7" s="33" customFormat="1" ht="16.5">
-      <c r="B16" s="65">
-        <v>5</v>
-      </c>
-      <c r="C16" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="68"/>
-    </row>
-    <row r="17" spans="2:7" s="33" customFormat="1" ht="16.5">
-      <c r="B17" s="65">
-        <v>6</v>
-      </c>
-      <c r="C17" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="68"/>
-    </row>
-    <row r="18" spans="2:7" s="33" customFormat="1" ht="16.5">
-      <c r="B18" s="65">
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="67"/>
+    </row>
+    <row r="18" spans="2:7" s="32" customFormat="1" ht="16.5">
+      <c r="B18" s="64">
         <f>+B17+1</f>
         <v>7</v>
       </c>
-      <c r="C18" s="66" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="68"/>
-    </row>
-    <row r="19" spans="2:7" s="33" customFormat="1" ht="16.5">
-      <c r="B19" s="65">
+      <c r="C18" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="67"/>
+    </row>
+    <row r="19" spans="2:7" s="32" customFormat="1" ht="16.5">
+      <c r="B19" s="64">
         <f>+B18+1</f>
         <v>8</v>
       </c>
-      <c r="C19" s="66" t="s">
-        <v>162</v>
-      </c>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="68"/>
-    </row>
-    <row r="20" spans="2:7" s="33" customFormat="1" ht="16.5">
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-    </row>
-    <row r="21" spans="2:7" ht="13.15" customHeight="1">
-      <c r="B21" s="85" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-    </row>
-    <row r="22" spans="2:7" s="33" customFormat="1" ht="16.5">
-      <c r="B22" s="20">
+      <c r="C19" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="67"/>
+    </row>
+    <row r="20" spans="2:7" s="32" customFormat="1" ht="16.5">
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+    </row>
+    <row r="21" spans="2:7" ht="17.25" customHeight="1">
+      <c r="B21" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="81"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+    </row>
+    <row r="22" spans="2:7" s="32" customFormat="1" ht="16.5">
+      <c r="B22" s="19">
         <v>1</v>
       </c>
-      <c r="C22" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="70"/>
-    </row>
-    <row r="23" spans="2:7" s="33" customFormat="1" ht="16.5">
-      <c r="B23" s="20">
+      <c r="C22" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="69"/>
+    </row>
+    <row r="23" spans="2:7" s="32" customFormat="1" ht="16.5">
+      <c r="B23" s="19">
         <f>+B22+1</f>
         <v>2</v>
       </c>
-      <c r="C23" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="23"/>
-    </row>
-    <row r="24" spans="2:7" s="33" customFormat="1" ht="16.5">
-      <c r="B24" s="20">
+      <c r="C23" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="22"/>
+    </row>
+    <row r="24" spans="2:7" s="32" customFormat="1" ht="16.5">
+      <c r="B24" s="19">
         <f>+B23+1</f>
         <v>3</v>
       </c>
-      <c r="C24" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="23"/>
-    </row>
-    <row r="25" spans="2:7" s="33" customFormat="1" ht="33">
-      <c r="B25" s="20">
+      <c r="C24" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="22"/>
+    </row>
+    <row r="25" spans="2:7" s="32" customFormat="1" ht="33">
+      <c r="B25" s="19">
         <f t="shared" ref="B25:B26" si="0">+B24+1</f>
         <v>4</v>
       </c>
-      <c r="C25" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="23"/>
-    </row>
-    <row r="26" spans="2:7" s="33" customFormat="1" ht="16.5">
-      <c r="B26" s="20">
+      <c r="C25" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="22"/>
+    </row>
+    <row r="26" spans="2:7" s="32" customFormat="1" ht="16.5">
+      <c r="B26" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C26" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="23"/>
+      <c r="C26" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="12">
